--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.760456666666666</v>
+      </c>
+      <c r="H2">
+        <v>11.28137</v>
+      </c>
+      <c r="I2">
+        <v>0.980026735496497</v>
+      </c>
+      <c r="J2">
+        <v>0.980026735496497</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.1987293333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.5961880000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.7216846264280856</v>
-      </c>
-      <c r="J2">
-        <v>0.7216846264280855</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N2">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O2">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P2">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q2">
-        <v>1.835351575620889</v>
+        <v>0.0810002366</v>
       </c>
       <c r="R2">
-        <v>16.518164180588</v>
+        <v>0.7290021293999999</v>
       </c>
       <c r="S2">
-        <v>0.7107986931285422</v>
+        <v>0.1295226603614803</v>
       </c>
       <c r="T2">
-        <v>0.7107986931285419</v>
+        <v>0.1295226603614803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1987293333333333</v>
+        <v>3.760456666666666</v>
       </c>
       <c r="H3">
-        <v>0.5961880000000001</v>
+        <v>11.28137</v>
       </c>
       <c r="I3">
-        <v>0.7216846264280856</v>
+        <v>0.980026735496497</v>
       </c>
       <c r="J3">
-        <v>0.7216846264280855</v>
+        <v>0.980026735496497</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N3">
         <v>0.25036</v>
       </c>
       <c r="O3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q3">
-        <v>0.01658462529777778</v>
+        <v>0.3138226436888888</v>
       </c>
       <c r="R3">
-        <v>0.14926162768</v>
+        <v>2.824403793199999</v>
       </c>
       <c r="S3">
-        <v>0.006422927434869844</v>
+        <v>0.5018151229975272</v>
       </c>
       <c r="T3">
-        <v>0.006422927434869843</v>
+        <v>0.5018151229975272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1987293333333333</v>
+        <v>3.760456666666666</v>
       </c>
       <c r="H4">
-        <v>0.5961880000000001</v>
+        <v>11.28137</v>
       </c>
       <c r="I4">
-        <v>0.7216846264280856</v>
+        <v>0.980026735496497</v>
       </c>
       <c r="J4">
-        <v>0.7216846264280855</v>
+        <v>0.980026735496497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.173964</v>
       </c>
       <c r="O4">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P4">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q4">
-        <v>0.01152391658133333</v>
+        <v>0.2180613611866667</v>
       </c>
       <c r="R4">
-        <v>0.103715249232</v>
+        <v>1.96255225068</v>
       </c>
       <c r="S4">
-        <v>0.004463005864673661</v>
+        <v>0.3486889521374894</v>
       </c>
       <c r="T4">
-        <v>0.004463005864673659</v>
+        <v>0.3486889521374894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.077919</v>
       </c>
       <c r="I5">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="J5">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N5">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O5">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P5">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q5">
-        <v>0.2398719186243334</v>
+        <v>0.00055945842</v>
       </c>
       <c r="R5">
-        <v>2.158847267619</v>
+        <v>0.00503512578</v>
       </c>
       <c r="S5">
-        <v>0.09289808478178506</v>
+        <v>0.0008945966822031531</v>
       </c>
       <c r="T5">
-        <v>0.09289808478178503</v>
+        <v>0.0008945966822031531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.077919</v>
       </c>
       <c r="I6">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="J6">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,16 +800,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N6">
         <v>0.25036</v>
       </c>
       <c r="O6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q6">
         <v>0.002167533426666667</v>
@@ -818,10 +818,10 @@
         <v>0.01950780084</v>
       </c>
       <c r="S6">
-        <v>0.0008394467563882925</v>
+        <v>0.003465973775245766</v>
       </c>
       <c r="T6">
-        <v>0.0008394467563882925</v>
+        <v>0.003465973775245766</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.077919</v>
       </c>
       <c r="I7">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="J7">
-        <v>0.09432082565675591</v>
+        <v>0.006768921079900008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.173964</v>
       </c>
       <c r="O7">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P7">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q7">
         <v>0.001506122324</v>
@@ -880,10 +880,10 @@
         <v>0.013555100916</v>
       </c>
       <c r="S7">
-        <v>0.0005832941185825727</v>
+        <v>0.002408350622451089</v>
       </c>
       <c r="T7">
-        <v>0.0005832941185825726</v>
+        <v>0.002408350622451089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.151999</v>
       </c>
       <c r="I8">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="J8">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N8">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O8">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P8">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q8">
-        <v>0.4679255606332223</v>
+        <v>0.00109135282</v>
       </c>
       <c r="R8">
-        <v>4.211330045699</v>
+        <v>0.009822175379999999</v>
       </c>
       <c r="S8">
-        <v>0.1812191633458662</v>
+        <v>0.001745117379563355</v>
       </c>
       <c r="T8">
-        <v>0.1812191633458661</v>
+        <v>0.001745117379563355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.151999</v>
       </c>
       <c r="I9">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="J9">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N9">
         <v>0.25036</v>
       </c>
       <c r="O9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q9">
-        <v>0.004228274404444445</v>
+        <v>0.004228274404444444</v>
       </c>
       <c r="R9">
         <v>0.03805446964</v>
       </c>
       <c r="S9">
-        <v>0.001637534715849332</v>
+        <v>0.006761182097608814</v>
       </c>
       <c r="T9">
-        <v>0.001637534715849331</v>
+        <v>0.006761182097608814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.151999</v>
       </c>
       <c r="I10">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="J10">
-        <v>0.1839945479151586</v>
+        <v>0.01320434342360299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>0.173964</v>
       </c>
       <c r="O10">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P10">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q10">
         <v>0.002938039337333334</v>
@@ -1066,10 +1066,10 @@
         <v>0.026442354036</v>
       </c>
       <c r="S10">
-        <v>0.001137849853443094</v>
+        <v>0.00469804394643082</v>
       </c>
       <c r="T10">
-        <v>0.001137849853443094</v>
+        <v>0.00469804394643082</v>
       </c>
     </row>
   </sheetData>
